--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4101656666666667</v>
+        <v>0.1273763333333333</v>
       </c>
       <c r="H2">
-        <v>1.230497</v>
+        <v>0.382129</v>
       </c>
       <c r="I2">
-        <v>0.07383296380759892</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="J2">
-        <v>0.07383296380759893</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.557669333333331</v>
+        <v>0.4025163333333333</v>
       </c>
       <c r="N2">
-        <v>28.673008</v>
+        <v>1.207549</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="Q2">
-        <v>3.920227813886221</v>
+        <v>0.05127105464677778</v>
       </c>
       <c r="R2">
-        <v>35.28205032497599</v>
+        <v>0.461439491821</v>
       </c>
       <c r="S2">
-        <v>0.07383296380759892</v>
+        <v>0.001056052070877749</v>
       </c>
       <c r="T2">
-        <v>0.07383296380759893</v>
+        <v>0.001056052070877749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.119982333333334</v>
+        <v>0.1273763333333333</v>
       </c>
       <c r="H3">
-        <v>12.359947</v>
+        <v>0.382129</v>
       </c>
       <c r="I3">
-        <v>0.7416283985372096</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="J3">
-        <v>0.7416283985372097</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.557669333333331</v>
+        <v>8.065052666666666</v>
       </c>
       <c r="N3">
-        <v>28.673008</v>
+        <v>24.195158</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9524637669520812</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9524637669520811</v>
       </c>
       <c r="Q3">
-        <v>39.37742880117511</v>
+        <v>1.027296836820222</v>
       </c>
       <c r="R3">
-        <v>354.3968592105759</v>
+        <v>9.245671531381999</v>
       </c>
       <c r="S3">
-        <v>0.7416283985372096</v>
+        <v>0.02115967692500623</v>
       </c>
       <c r="T3">
-        <v>0.7416283985372097</v>
+        <v>0.02115967692500623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3170996666666667</v>
+        <v>4.119982333333334</v>
       </c>
       <c r="H4">
-        <v>0.951299</v>
+        <v>12.359947</v>
       </c>
       <c r="I4">
-        <v>0.05708037048217512</v>
+        <v>0.7185668529619296</v>
       </c>
       <c r="J4">
-        <v>0.05708037048217514</v>
+        <v>0.7185668529619297</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.557669333333331</v>
+        <v>0.4025163333333333</v>
       </c>
       <c r="N4">
-        <v>28.673008</v>
+        <v>1.207549</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04753623304791887</v>
       </c>
       <c r="Q4">
-        <v>3.030733759710222</v>
+        <v>1.658360182211444</v>
       </c>
       <c r="R4">
-        <v>27.276603837392</v>
+        <v>14.925241639903</v>
       </c>
       <c r="S4">
-        <v>0.05708037048217512</v>
+        <v>0.03415796138290794</v>
       </c>
       <c r="T4">
-        <v>0.05708037048217514</v>
+        <v>0.03415796138290794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7080713333333334</v>
+        <v>4.119982333333334</v>
       </c>
       <c r="H5">
-        <v>2.124214</v>
+        <v>12.359947</v>
       </c>
       <c r="I5">
-        <v>0.1274582671730162</v>
+        <v>0.7185668529619296</v>
       </c>
       <c r="J5">
-        <v>0.1274582671730163</v>
+        <v>0.7185668529619297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.557669333333331</v>
+        <v>8.065052666666666</v>
       </c>
       <c r="N5">
-        <v>28.673008</v>
+        <v>24.195158</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9524637669520812</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9524637669520811</v>
       </c>
       <c r="Q5">
-        <v>6.767511668412443</v>
+        <v>33.22787450406955</v>
       </c>
       <c r="R5">
-        <v>60.907605015712</v>
+        <v>299.050870536626</v>
       </c>
       <c r="S5">
-        <v>0.1274582671730162</v>
+        <v>0.6844088915790217</v>
       </c>
       <c r="T5">
-        <v>0.1274582671730163</v>
+        <v>0.6844088915790217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2286643333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.685993</v>
+      </c>
+      <c r="I6">
+        <v>0.03988138712600571</v>
+      </c>
+      <c r="J6">
+        <v>0.03988138712600571</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.4025163333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.207549</v>
+      </c>
+      <c r="O6">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="P6">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="Q6">
+        <v>0.09204112901744443</v>
+      </c>
+      <c r="R6">
+        <v>0.8283701611569999</v>
+      </c>
+      <c r="S6">
+        <v>0.001895810912696079</v>
+      </c>
+      <c r="T6">
+        <v>0.001895810912696079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2286643333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.685993</v>
+      </c>
+      <c r="I7">
+        <v>0.03988138712600571</v>
+      </c>
+      <c r="J7">
+        <v>0.03988138712600571</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.065052666666666</v>
+      </c>
+      <c r="N7">
+        <v>24.195158</v>
+      </c>
+      <c r="O7">
+        <v>0.9524637669520812</v>
+      </c>
+      <c r="P7">
+        <v>0.9524637669520811</v>
+      </c>
+      <c r="Q7">
+        <v>1.844189891321556</v>
+      </c>
+      <c r="R7">
+        <v>16.597709021894</v>
+      </c>
+      <c r="S7">
+        <v>0.03798557621330963</v>
+      </c>
+      <c r="T7">
+        <v>0.03798557621330963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.257587333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.772762</v>
+      </c>
+      <c r="I8">
+        <v>0.2193360309161807</v>
+      </c>
+      <c r="J8">
+        <v>0.2193360309161807</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.4025163333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.207549</v>
+      </c>
+      <c r="O8">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="P8">
+        <v>0.04753623304791887</v>
+      </c>
+      <c r="Q8">
+        <v>0.5061994422597778</v>
+      </c>
+      <c r="R8">
+        <v>4.555794980338</v>
+      </c>
+      <c r="S8">
+        <v>0.0104264086814371</v>
+      </c>
+      <c r="T8">
+        <v>0.0104264086814371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.257587333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.772762</v>
+      </c>
+      <c r="I9">
+        <v>0.2193360309161807</v>
+      </c>
+      <c r="J9">
+        <v>0.2193360309161807</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.065052666666666</v>
+      </c>
+      <c r="N9">
+        <v>24.195158</v>
+      </c>
+      <c r="O9">
+        <v>0.9524637669520812</v>
+      </c>
+      <c r="P9">
+        <v>0.9524637669520811</v>
+      </c>
+      <c r="Q9">
+        <v>10.14250807626622</v>
+      </c>
+      <c r="R9">
+        <v>91.28257268639599</v>
+      </c>
+      <c r="S9">
+        <v>0.2089096222347437</v>
+      </c>
+      <c r="T9">
+        <v>0.2089096222347436</v>
       </c>
     </row>
   </sheetData>
